--- a/Doc/(クラス_氏名_作品名)のスケジュール.xlsx
+++ b/Doc/(クラス_氏名_作品名)のスケジュール.xlsx
@@ -439,7 +439,9 @@
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -740,7 +742,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G27" si="1">E2-F2</f>
+        <f t="shared" ref="G2:G26" si="1">E2-F2</f>
         <v>0</v>
       </c>
     </row>
@@ -1018,8 +1020,7 @@
         <v>0.0</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1029,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" ref="D28:G28" si="2">SUM(D20:INDIRECT(ADDRESS(ROW()-1, COLUMN())))</f>
+        <f t="shared" ref="D28:G28" si="2">SUM(D2:D27)</f>
         <v>0</v>
       </c>
       <c r="E28" s="18">
@@ -2083,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="18">
-        <f t="shared" ref="D41:G41" si="2">SUM(D2:INDIRECT(ADDRESS(ROW()-1, COLUMN())))</f>
+        <f t="shared" ref="D41:G41" si="2">SUM(D2:D40)</f>
         <v>85</v>
       </c>
       <c r="E41" s="18">
